--- a/Prectica 1/TABLAS.xlsx
+++ b/Prectica 1/TABLAS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Propietario</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Estado Vigente</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +229,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,310 +528,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
